--- a/Finance/data/Options.xlsx
+++ b/Finance/data/Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runru\Analysis_Data_Python\Finance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78556C8B-121E-45D3-8A2E-4192C36ADC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB7359-62AF-47A8-BFE8-CC497E7F54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="8010" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1010" windowWidth="15220" windowHeight="9790" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="$SPX" sheetId="1" r:id="rId1"/>
@@ -697,30 +697,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'$SPX'!$D$2:$D$158</c:f>
+              <c:f>'$SPX'!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="157"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98</c:v>
@@ -729,223 +729,223 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>70</c:v>
@@ -954,61 +954,61 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>67</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>94</c:v>
@@ -1017,28 +1017,28 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>95</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>95</c:v>
@@ -1047,130 +1047,226 @@
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="115">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="144">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,991 +1275,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E6C1-43C2-8442-DCE8F8742E38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>DJX - IV_Percentile</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'$SPX'!$A$2:$A$158</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="157"/>
-                <c:pt idx="0">
-                  <c:v>44683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44686</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44687</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44690</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44691</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44693</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44697</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44705</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44707</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44708</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44714</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44715</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44719</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44721</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44722</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44726</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44728</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44733</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44735</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44736</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44740</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44747</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44749</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44750</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44754</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44756</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44757</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44761</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44763</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44764</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44768</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44770</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44775</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44777</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44778</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44782</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44783</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44784</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44789</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44790</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44791</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44792</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44796</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44797</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44798</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44799</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44803</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44807</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44810</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44811</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44812</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44813</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44817</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44818</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44819</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44820</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44824</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44825</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44826</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44827</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44831</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44832</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44833</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44837</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44838</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44839</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44840</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44844</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44845</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44846</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44847</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44848</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44851</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44852</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44853</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44854</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44855</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44858</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44859</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44860</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44861</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44862</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44867</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44868</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44869</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44872</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44873</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44874</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44875</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44876</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44879</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44880</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44881</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44882</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44883</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44886</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44887</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44888</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44890</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44893</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44894</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44897</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44900</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44901</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44902</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44903</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44904</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44908</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44908</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44909</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44910</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44911</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'$DJX'!$D$2:$D$158</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="157"/>
-                <c:pt idx="0">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E6C1-43C2-8442-DCE8F8742E38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2178,6 +1289,1102 @@
         <c:smooth val="0"/>
         <c:axId val="439153104"/>
         <c:axId val="439151824"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>DJX - IV_Percentile</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'$SPX'!$A$2:$A$158</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="157"/>
+                      <c:pt idx="0">
+                        <c:v>44683</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44684</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44685</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44686</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44687</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44690</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44691</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44692</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>44693</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>44694</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>44697</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>44698</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>44699</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44700</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44701</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44704</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>44705</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>44706</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>44707</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>44708</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>44712</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44713</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44714</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>44715</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>44718</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>44719</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>44720</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>44721</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>44722</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>44725</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>44726</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>44727</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>44728</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>44729</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>44733</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>44735</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>44736</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>44739</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>44740</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>44741</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>44742</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>44743</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>44747</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44748</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44749</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>44750</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>44753</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>44754</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>44755</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>44756</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>44757</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>44760</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>44761</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>44762</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>44763</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>44764</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>44767</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>44768</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>44769</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>44770</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>44771</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>44774</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>44775</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>44776</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>44777</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>44778</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>44781</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>44782</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>44783</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>44784</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>44785</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>44788</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>44789</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>44790</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44791</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>44792</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>44795</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>44796</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>44797</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>44798</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>44799</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>44802</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>44803</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>44804</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>44805</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>44807</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>44810</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>44811</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>44812</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>44813</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>44816</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>44817</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>44818</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>44819</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44820</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44823</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44824</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44825</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44826</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44827</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44830</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44831</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44832</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44833</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44834</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44837</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44838</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44839</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44840</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44844</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44845</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44846</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44847</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44848</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44851</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44852</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44853</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44854</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44855</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44858</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44859</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44860</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44861</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44862</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44865</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44867</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44868</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44869</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44872</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44873</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44874</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44875</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44876</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44879</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44880</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44881</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44882</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44883</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>44886</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>44887</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>44888</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>44890</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>44893</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>44894</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>44895</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>44896</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>44897</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>44900</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>44901</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>44902</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>44903</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>44904</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>44908</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>44908</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>44909</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>44910</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>44911</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'$DJX'!$D:$D</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E6C1-43C2-8442-DCE8F8742E38}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="439153104"/>
@@ -2332,10 +2539,10 @@
       <xdr:rowOff>96630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>379618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89728</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>407229</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2628,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
@@ -9820,6 +10027,580 @@
         <v>16742616</v>
       </c>
     </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B176">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C176">
+        <v>17.55</v>
+      </c>
+      <c r="D176">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>19.78</v>
+      </c>
+      <c r="F176">
+        <v>30.9</v>
+      </c>
+      <c r="G176">
+        <v>14.63</v>
+      </c>
+      <c r="H176">
+        <v>1.45</v>
+      </c>
+      <c r="I176" s="4">
+        <v>2463057</v>
+      </c>
+      <c r="J176" s="4">
+        <v>2316201</v>
+      </c>
+      <c r="K176">
+        <v>1.82</v>
+      </c>
+      <c r="L176" s="4">
+        <v>17084842</v>
+      </c>
+      <c r="M176" s="4">
+        <v>15376916</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B177">
+        <v>18.93</v>
+      </c>
+      <c r="C177">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="D177">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>26.43</v>
+      </c>
+      <c r="F177">
+        <v>30.9</v>
+      </c>
+      <c r="G177">
+        <v>14.63</v>
+      </c>
+      <c r="H177">
+        <v>1.39</v>
+      </c>
+      <c r="I177" s="4">
+        <v>3104776</v>
+      </c>
+      <c r="J177" s="4">
+        <v>2353752</v>
+      </c>
+      <c r="K177">
+        <v>1.8</v>
+      </c>
+      <c r="L177" s="4">
+        <v>17141532</v>
+      </c>
+      <c r="M177" s="4">
+        <v>15460946</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B178">
+        <v>19.11</v>
+      </c>
+      <c r="C178">
+        <v>17.48</v>
+      </c>
+      <c r="D178">
+        <v>17</v>
+      </c>
+      <c r="E178">
+        <v>27.55</v>
+      </c>
+      <c r="F178">
+        <v>30.9</v>
+      </c>
+      <c r="G178">
+        <v>14.63</v>
+      </c>
+      <c r="H178">
+        <v>1.26</v>
+      </c>
+      <c r="I178" s="4">
+        <v>2757173</v>
+      </c>
+      <c r="J178" s="4">
+        <v>2371549</v>
+      </c>
+      <c r="K178">
+        <v>1.78</v>
+      </c>
+      <c r="L178" s="4">
+        <v>17469835</v>
+      </c>
+      <c r="M178" s="4">
+        <v>15371104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B179">
+        <v>18.11</v>
+      </c>
+      <c r="C179">
+        <v>17.87</v>
+      </c>
+      <c r="D179">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>21.37</v>
+      </c>
+      <c r="F179">
+        <v>30.9</v>
+      </c>
+      <c r="G179">
+        <v>14.63</v>
+      </c>
+      <c r="H179">
+        <v>1.19</v>
+      </c>
+      <c r="I179" s="4">
+        <v>2608030</v>
+      </c>
+      <c r="J179" s="4">
+        <v>2390326</v>
+      </c>
+      <c r="K179">
+        <v>1.78</v>
+      </c>
+      <c r="L179" s="4">
+        <v>17785645</v>
+      </c>
+      <c r="M179" s="4">
+        <v>15498459</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B180">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="C180">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D180">
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>18.55</v>
+      </c>
+      <c r="F180">
+        <v>30.9</v>
+      </c>
+      <c r="G180">
+        <v>14.63</v>
+      </c>
+      <c r="H180">
+        <v>1.25</v>
+      </c>
+      <c r="I180" s="4">
+        <v>2933533</v>
+      </c>
+      <c r="J180" s="4">
+        <v>2408988</v>
+      </c>
+      <c r="K180">
+        <v>1.87</v>
+      </c>
+      <c r="L180" s="4">
+        <v>15683075</v>
+      </c>
+      <c r="M180" s="4">
+        <v>15501965</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B181">
+        <v>17.45</v>
+      </c>
+      <c r="C181">
+        <v>18.04</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>17.3</v>
+      </c>
+      <c r="F181">
+        <v>30.9</v>
+      </c>
+      <c r="G181">
+        <v>14.63</v>
+      </c>
+      <c r="H181">
+        <v>1.39</v>
+      </c>
+      <c r="I181" s="4">
+        <v>2050056</v>
+      </c>
+      <c r="J181" s="4">
+        <v>2391042</v>
+      </c>
+      <c r="K181">
+        <v>1.83</v>
+      </c>
+      <c r="L181" s="4">
+        <v>15516769</v>
+      </c>
+      <c r="M181" s="4">
+        <v>15502705</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B182">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="C182">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F182">
+        <v>30.9</v>
+      </c>
+      <c r="G182">
+        <v>14.63</v>
+      </c>
+      <c r="H182">
+        <v>1.28</v>
+      </c>
+      <c r="I182" s="4">
+        <v>2679225</v>
+      </c>
+      <c r="J182" s="4">
+        <v>2404765</v>
+      </c>
+      <c r="K182">
+        <v>1.81</v>
+      </c>
+      <c r="L182" s="4">
+        <v>15560411</v>
+      </c>
+      <c r="M182" s="4">
+        <v>15505453</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B183">
+        <v>16.79</v>
+      </c>
+      <c r="C183">
+        <v>17.72</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>13.3</v>
+      </c>
+      <c r="F183">
+        <v>30.9</v>
+      </c>
+      <c r="G183">
+        <v>14.63</v>
+      </c>
+      <c r="H183">
+        <v>1.17</v>
+      </c>
+      <c r="I183" s="4">
+        <v>2565893</v>
+      </c>
+      <c r="J183" s="4">
+        <v>2412089</v>
+      </c>
+      <c r="K183">
+        <v>1.84</v>
+      </c>
+      <c r="L183" s="4">
+        <v>15863451</v>
+      </c>
+      <c r="M183" s="4">
+        <v>15521725</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B184">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="C184">
+        <v>17.62</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>11.12</v>
+      </c>
+      <c r="F184">
+        <v>30.9</v>
+      </c>
+      <c r="G184">
+        <v>14.63</v>
+      </c>
+      <c r="H184">
+        <v>1.41</v>
+      </c>
+      <c r="I184" s="4">
+        <v>2811493</v>
+      </c>
+      <c r="J184" s="4">
+        <v>2459510</v>
+      </c>
+      <c r="K184">
+        <v>1.83</v>
+      </c>
+      <c r="L184" s="4">
+        <v>16026664</v>
+      </c>
+      <c r="M184" s="4">
+        <v>15521727</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B185">
+        <v>18.13</v>
+      </c>
+      <c r="C185">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="D185">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>21.49</v>
+      </c>
+      <c r="F185">
+        <v>30.9</v>
+      </c>
+      <c r="G185">
+        <v>14.63</v>
+      </c>
+      <c r="H185">
+        <v>1.31</v>
+      </c>
+      <c r="I185" s="4">
+        <v>2423854</v>
+      </c>
+      <c r="J185" s="4">
+        <v>2464735</v>
+      </c>
+      <c r="K185">
+        <v>1.85</v>
+      </c>
+      <c r="L185" s="4">
+        <v>16418414</v>
+      </c>
+      <c r="M185" s="4">
+        <v>15511038</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B186">
+        <v>17.27</v>
+      </c>
+      <c r="C186">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="D186">
+        <v>7</v>
+      </c>
+      <c r="E186">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="F186">
+        <v>30.9</v>
+      </c>
+      <c r="G186">
+        <v>14.63</v>
+      </c>
+      <c r="H186">
+        <v>1.34</v>
+      </c>
+      <c r="I186" s="4">
+        <v>2348172</v>
+      </c>
+      <c r="J186" s="4">
+        <v>2459184</v>
+      </c>
+      <c r="K186">
+        <v>1.8</v>
+      </c>
+      <c r="L186" s="4">
+        <v>16351052</v>
+      </c>
+      <c r="M186" s="4">
+        <v>15551038</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B187">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C187">
+        <v>16.47</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
+        <v>9.01</v>
+      </c>
+      <c r="F187">
+        <v>30.9</v>
+      </c>
+      <c r="G187">
+        <v>14.63</v>
+      </c>
+      <c r="H187">
+        <v>1.28</v>
+      </c>
+      <c r="I187" s="4">
+        <v>2425881</v>
+      </c>
+      <c r="J187" s="4">
+        <v>2457671</v>
+      </c>
+      <c r="K187">
+        <v>1.85</v>
+      </c>
+      <c r="L187" s="4">
+        <v>16534397</v>
+      </c>
+      <c r="M187" s="4">
+        <v>15595737</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B188">
+        <v>16.09</v>
+      </c>
+      <c r="C188">
+        <v>16.47</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F188">
+        <v>30.9</v>
+      </c>
+      <c r="G188">
+        <v>14.63</v>
+      </c>
+      <c r="H188">
+        <v>1.25</v>
+      </c>
+      <c r="I188" s="4">
+        <v>1218674</v>
+      </c>
+      <c r="J188" s="4">
+        <v>2403801</v>
+      </c>
+      <c r="K188">
+        <v>1.8</v>
+      </c>
+      <c r="L188" s="4">
+        <v>16013454</v>
+      </c>
+      <c r="M188" s="4">
+        <v>15613898</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B189">
+        <v>16.09</v>
+      </c>
+      <c r="C189">
+        <v>16.91</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F189">
+        <v>30.9</v>
+      </c>
+      <c r="G189">
+        <v>14.63</v>
+      </c>
+      <c r="H189">
+        <v>1.25</v>
+      </c>
+      <c r="I189" s="4">
+        <v>1218674</v>
+      </c>
+      <c r="J189" s="4">
+        <v>2403801</v>
+      </c>
+      <c r="K189">
+        <v>1.8</v>
+      </c>
+      <c r="L189" s="4">
+        <v>16013454</v>
+      </c>
+      <c r="M189" s="4">
+        <v>15613898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9827,10 +10608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16F718-A8F1-4CCF-9DBC-AE906527B6BD}">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
@@ -17020,6 +17801,580 @@
         <v>183543</v>
       </c>
     </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B176">
+        <v>23.61</v>
+      </c>
+      <c r="C176">
+        <v>22.72</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>12.03</v>
+      </c>
+      <c r="F176">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G176">
+        <v>21.43</v>
+      </c>
+      <c r="H176">
+        <v>1.35</v>
+      </c>
+      <c r="I176" s="4">
+        <v>37737</v>
+      </c>
+      <c r="J176" s="4">
+        <v>37317</v>
+      </c>
+      <c r="K176">
+        <v>1.03</v>
+      </c>
+      <c r="L176" s="4">
+        <v>196593</v>
+      </c>
+      <c r="M176" s="4">
+        <v>179634</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B177">
+        <v>23.94</v>
+      </c>
+      <c r="C177">
+        <v>22.93</v>
+      </c>
+      <c r="D177">
+        <v>8</v>
+      </c>
+      <c r="E177">
+        <v>13.86</v>
+      </c>
+      <c r="F177">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G177">
+        <v>21.43</v>
+      </c>
+      <c r="H177">
+        <v>0.89</v>
+      </c>
+      <c r="I177" s="4">
+        <v>49330</v>
+      </c>
+      <c r="J177" s="4">
+        <v>37917</v>
+      </c>
+      <c r="K177">
+        <v>1.05</v>
+      </c>
+      <c r="L177" s="4">
+        <v>199971</v>
+      </c>
+      <c r="M177" s="4">
+        <v>180651</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B178">
+        <v>24.13</v>
+      </c>
+      <c r="C178">
+        <v>22.61</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>14.87</v>
+      </c>
+      <c r="F178">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G178">
+        <v>21.43</v>
+      </c>
+      <c r="H178">
+        <v>0.87</v>
+      </c>
+      <c r="I178" s="4">
+        <v>49161</v>
+      </c>
+      <c r="J178" s="4">
+        <v>38442</v>
+      </c>
+      <c r="K178">
+        <v>1.03</v>
+      </c>
+      <c r="L178" s="4">
+        <v>207361</v>
+      </c>
+      <c r="M178" s="4">
+        <v>181043</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B179">
+        <v>23.06</v>
+      </c>
+      <c r="C179">
+        <v>23.42</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <v>9.02</v>
+      </c>
+      <c r="F179">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G179">
+        <v>21.43</v>
+      </c>
+      <c r="H179">
+        <v>0.68</v>
+      </c>
+      <c r="I179" s="4">
+        <v>36483</v>
+      </c>
+      <c r="J179" s="4">
+        <v>38825</v>
+      </c>
+      <c r="K179">
+        <v>1.06</v>
+      </c>
+      <c r="L179" s="4">
+        <v>201911</v>
+      </c>
+      <c r="M179" s="4">
+        <v>182926</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B180">
+        <v>23.13</v>
+      </c>
+      <c r="C180">
+        <v>24.15</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F180">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G180">
+        <v>21.43</v>
+      </c>
+      <c r="H180">
+        <v>0.78</v>
+      </c>
+      <c r="I180" s="4">
+        <v>58195</v>
+      </c>
+      <c r="J180" s="4">
+        <v>41315</v>
+      </c>
+      <c r="K180">
+        <v>0.93</v>
+      </c>
+      <c r="L180" s="4">
+        <v>229086</v>
+      </c>
+      <c r="M180" s="4">
+        <v>187572</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B181">
+        <v>23.41</v>
+      </c>
+      <c r="C181">
+        <v>23.94</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>10.94</v>
+      </c>
+      <c r="F181">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G181">
+        <v>21.43</v>
+      </c>
+      <c r="H181">
+        <v>1.22</v>
+      </c>
+      <c r="I181" s="4">
+        <v>20362</v>
+      </c>
+      <c r="J181" s="4">
+        <v>38964</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" s="4">
+        <v>152751</v>
+      </c>
+      <c r="M181" s="4">
+        <v>182643</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B182">
+        <v>23.15</v>
+      </c>
+      <c r="C182">
+        <v>23.87</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>9.52</v>
+      </c>
+      <c r="F182">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G182">
+        <v>21.43</v>
+      </c>
+      <c r="H182">
+        <v>1.04</v>
+      </c>
+      <c r="I182" s="4">
+        <v>28962</v>
+      </c>
+      <c r="J182" s="4">
+        <v>38464</v>
+      </c>
+      <c r="K182">
+        <v>1.01</v>
+      </c>
+      <c r="L182" s="4">
+        <v>156185</v>
+      </c>
+      <c r="M182" s="4">
+        <v>181320</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B183">
+        <v>23.26</v>
+      </c>
+      <c r="C183">
+        <v>24.27</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>10.07</v>
+      </c>
+      <c r="F183">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G183">
+        <v>21.43</v>
+      </c>
+      <c r="H183">
+        <v>0.65</v>
+      </c>
+      <c r="I183" s="4">
+        <v>28691</v>
+      </c>
+      <c r="J183" s="4">
+        <v>37998</v>
+      </c>
+      <c r="K183">
+        <v>1.04</v>
+      </c>
+      <c r="L183" s="4">
+        <v>159349</v>
+      </c>
+      <c r="M183" s="4">
+        <v>180273</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B184">
+        <v>22.81</v>
+      </c>
+      <c r="C184">
+        <v>24.23</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <v>7.61</v>
+      </c>
+      <c r="F184">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G184">
+        <v>21.43</v>
+      </c>
+      <c r="H184">
+        <v>0.82</v>
+      </c>
+      <c r="I184" s="4">
+        <v>35956</v>
+      </c>
+      <c r="J184" s="4">
+        <v>38363</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" s="4">
+        <v>159764</v>
+      </c>
+      <c r="M184" s="4">
+        <v>179848</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B185">
+        <v>24.77</v>
+      </c>
+      <c r="C185">
+        <v>24.92</v>
+      </c>
+      <c r="D185">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="F185">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G185">
+        <v>21.43</v>
+      </c>
+      <c r="H185">
+        <v>0.66</v>
+      </c>
+      <c r="I185" s="4">
+        <v>31950</v>
+      </c>
+      <c r="J185" s="4">
+        <v>38778</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185" s="4">
+        <v>164037</v>
+      </c>
+      <c r="M185" s="4">
+        <v>180075</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B186">
+        <v>24.1</v>
+      </c>
+      <c r="C186">
+        <v>23.05</v>
+      </c>
+      <c r="D186">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>14.74</v>
+      </c>
+      <c r="F186">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G186">
+        <v>21.43</v>
+      </c>
+      <c r="H186">
+        <v>1.08</v>
+      </c>
+      <c r="I186" s="4">
+        <v>15682</v>
+      </c>
+      <c r="J186" s="4">
+        <v>37623</v>
+      </c>
+      <c r="K186">
+        <v>0.92</v>
+      </c>
+      <c r="L186" s="4">
+        <v>167919</v>
+      </c>
+      <c r="M186" s="4">
+        <v>179467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B187">
+        <v>23.11</v>
+      </c>
+      <c r="C187">
+        <v>23.42</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F187">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G187">
+        <v>21.43</v>
+      </c>
+      <c r="H187">
+        <v>0.86</v>
+      </c>
+      <c r="I187" s="4">
+        <v>24078</v>
+      </c>
+      <c r="J187" s="4">
+        <v>36978</v>
+      </c>
+      <c r="K187">
+        <v>0.95</v>
+      </c>
+      <c r="L187" s="4">
+        <v>166349</v>
+      </c>
+      <c r="M187" s="4">
+        <v>178842</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B188">
+        <v>23.8</v>
+      </c>
+      <c r="C188">
+        <v>24.47</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>13.08</v>
+      </c>
+      <c r="F188">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G188">
+        <v>21.43</v>
+      </c>
+      <c r="H188">
+        <v>0.94</v>
+      </c>
+      <c r="I188" s="4">
+        <v>23022</v>
+      </c>
+      <c r="J188" s="4">
+        <v>36344</v>
+      </c>
+      <c r="K188">
+        <v>0.91</v>
+      </c>
+      <c r="L188" s="4">
+        <v>160986</v>
+      </c>
+      <c r="M188" s="4">
+        <v>178031</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B189">
+        <v>23.8</v>
+      </c>
+      <c r="C189">
+        <v>25.3</v>
+      </c>
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>13.08</v>
+      </c>
+      <c r="F189">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G189">
+        <v>21.43</v>
+      </c>
+      <c r="H189">
+        <v>0.94</v>
+      </c>
+      <c r="I189" s="4">
+        <v>23022</v>
+      </c>
+      <c r="J189" s="4">
+        <v>36344</v>
+      </c>
+      <c r="K189">
+        <v>0.91</v>
+      </c>
+      <c r="L189" s="4">
+        <v>160986</v>
+      </c>
+      <c r="M189" s="4">
+        <v>178031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17028,10 +18383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55BD6C-1A6D-45F1-BD14-453581CC939E}">
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
@@ -24175,6 +25530,580 @@
         <v>36974</v>
       </c>
     </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B175">
+        <v>15.08</v>
+      </c>
+      <c r="C175">
+        <v>15.31</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>7.15</v>
+      </c>
+      <c r="F175">
+        <v>32.14</v>
+      </c>
+      <c r="G175">
+        <v>13.77</v>
+      </c>
+      <c r="H175">
+        <v>2.23</v>
+      </c>
+      <c r="I175" s="4">
+        <v>6316</v>
+      </c>
+      <c r="J175" s="4">
+        <v>1602</v>
+      </c>
+      <c r="K175">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L175" s="4">
+        <v>37920</v>
+      </c>
+      <c r="M175" s="4">
+        <v>32106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B176">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="C176">
+        <v>16.12</v>
+      </c>
+      <c r="D176">
+        <v>14</v>
+      </c>
+      <c r="E176">
+        <v>13.83</v>
+      </c>
+      <c r="F176">
+        <v>32.14</v>
+      </c>
+      <c r="G176">
+        <v>13.77</v>
+      </c>
+      <c r="H176">
+        <v>0.37</v>
+      </c>
+      <c r="I176" s="4">
+        <v>2311</v>
+      </c>
+      <c r="J176" s="4">
+        <v>1638</v>
+      </c>
+      <c r="K176">
+        <v>1.28</v>
+      </c>
+      <c r="L176" s="4">
+        <v>46261</v>
+      </c>
+      <c r="M176" s="4">
+        <v>32814</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B177">
+        <v>16.59</v>
+      </c>
+      <c r="C177">
+        <v>15.78</v>
+      </c>
+      <c r="D177">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>15.38</v>
+      </c>
+      <c r="F177">
+        <v>32.14</v>
+      </c>
+      <c r="G177">
+        <v>13.77</v>
+      </c>
+      <c r="H177">
+        <v>1.77</v>
+      </c>
+      <c r="I177" s="4">
+        <v>2562</v>
+      </c>
+      <c r="J177" s="4">
+        <v>1747</v>
+      </c>
+      <c r="K177">
+        <v>1.27</v>
+      </c>
+      <c r="L177" s="4">
+        <v>46219</v>
+      </c>
+      <c r="M177" s="4">
+        <v>32630</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B178">
+        <v>16.02</v>
+      </c>
+      <c r="C178">
+        <v>15.82</v>
+      </c>
+      <c r="D178">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>12.28</v>
+      </c>
+      <c r="F178">
+        <v>32.14</v>
+      </c>
+      <c r="G178">
+        <v>13.77</v>
+      </c>
+      <c r="H178">
+        <v>0.27</v>
+      </c>
+      <c r="I178" s="4">
+        <v>3419</v>
+      </c>
+      <c r="J178" s="4">
+        <v>1909</v>
+      </c>
+      <c r="K178">
+        <v>1.25</v>
+      </c>
+      <c r="L178" s="4">
+        <v>43125</v>
+      </c>
+      <c r="M178" s="4">
+        <v>33331</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B179">
+        <v>16.02</v>
+      </c>
+      <c r="C179">
+        <v>15.98</v>
+      </c>
+      <c r="D179">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>12.25</v>
+      </c>
+      <c r="F179">
+        <v>32.14</v>
+      </c>
+      <c r="G179">
+        <v>13.77</v>
+      </c>
+      <c r="H179">
+        <v>0.39</v>
+      </c>
+      <c r="I179" s="4">
+        <v>2440</v>
+      </c>
+      <c r="J179" s="4">
+        <v>2182</v>
+      </c>
+      <c r="K179">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L179" s="4">
+        <v>40489</v>
+      </c>
+      <c r="M179" s="4">
+        <v>34376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B180">
+        <v>15.62</v>
+      </c>
+      <c r="C180">
+        <v>15.92</v>
+      </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>10.1</v>
+      </c>
+      <c r="F180">
+        <v>32.14</v>
+      </c>
+      <c r="G180">
+        <v>13.77</v>
+      </c>
+      <c r="H180">
+        <v>0.48</v>
+      </c>
+      <c r="I180">
+        <v>554</v>
+      </c>
+      <c r="J180" s="4">
+        <v>2096</v>
+      </c>
+      <c r="K180">
+        <v>1.23</v>
+      </c>
+      <c r="L180" s="4">
+        <v>35671</v>
+      </c>
+      <c r="M180" s="4">
+        <v>34444</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B181">
+        <v>15.66</v>
+      </c>
+      <c r="C181">
+        <v>15.7</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>10.28</v>
+      </c>
+      <c r="F181">
+        <v>32.14</v>
+      </c>
+      <c r="G181">
+        <v>13.77</v>
+      </c>
+      <c r="H181">
+        <v>0.42</v>
+      </c>
+      <c r="I181" s="4">
+        <v>3162</v>
+      </c>
+      <c r="J181" s="4">
+        <v>2150</v>
+      </c>
+      <c r="K181">
+        <v>1.22</v>
+      </c>
+      <c r="L181" s="4">
+        <v>36024</v>
+      </c>
+      <c r="M181" s="4">
+        <v>34523</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B182">
+        <v>15.34</v>
+      </c>
+      <c r="C182">
+        <v>15.14</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>8.59</v>
+      </c>
+      <c r="F182">
+        <v>32.14</v>
+      </c>
+      <c r="G182">
+        <v>13.77</v>
+      </c>
+      <c r="H182">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I182">
+        <v>565</v>
+      </c>
+      <c r="J182" s="4">
+        <v>2074</v>
+      </c>
+      <c r="K182">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L182" s="4">
+        <v>38743</v>
+      </c>
+      <c r="M182" s="4">
+        <v>34724</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B183">
+        <v>15.27</v>
+      </c>
+      <c r="C183">
+        <v>15.11</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>8.18</v>
+      </c>
+      <c r="F183">
+        <v>32.14</v>
+      </c>
+      <c r="G183">
+        <v>13.77</v>
+      </c>
+      <c r="H183">
+        <v>2.48</v>
+      </c>
+      <c r="I183">
+        <v>327</v>
+      </c>
+      <c r="J183" s="4">
+        <v>2079</v>
+      </c>
+      <c r="K183">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L183" s="4">
+        <v>38684</v>
+      </c>
+      <c r="M183" s="4">
+        <v>35158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B184">
+        <v>16.62</v>
+      </c>
+      <c r="C184">
+        <v>15.22</v>
+      </c>
+      <c r="D184">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>15.56</v>
+      </c>
+      <c r="F184">
+        <v>32.14</v>
+      </c>
+      <c r="G184">
+        <v>13.77</v>
+      </c>
+      <c r="H184">
+        <v>2.06</v>
+      </c>
+      <c r="I184" s="4">
+        <v>6243</v>
+      </c>
+      <c r="J184" s="4">
+        <v>2527</v>
+      </c>
+      <c r="K184">
+        <v>1.17</v>
+      </c>
+      <c r="L184" s="4">
+        <v>38435</v>
+      </c>
+      <c r="M184" s="4">
+        <v>36210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B185">
+        <v>16.04</v>
+      </c>
+      <c r="C185">
+        <v>14.01</v>
+      </c>
+      <c r="D185">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>12.35</v>
+      </c>
+      <c r="F185">
+        <v>32.14</v>
+      </c>
+      <c r="G185">
+        <v>13.77</v>
+      </c>
+      <c r="H185">
+        <v>19.32</v>
+      </c>
+      <c r="I185" s="4">
+        <v>4450</v>
+      </c>
+      <c r="J185" s="4">
+        <v>2623</v>
+      </c>
+      <c r="K185">
+        <v>1.26</v>
+      </c>
+      <c r="L185" s="4">
+        <v>44368</v>
+      </c>
+      <c r="M185" s="4">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B186">
+        <v>14.8</v>
+      </c>
+      <c r="C186">
+        <v>13.73</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>5.61</v>
+      </c>
+      <c r="F186">
+        <v>32.14</v>
+      </c>
+      <c r="G186">
+        <v>13.77</v>
+      </c>
+      <c r="H186">
+        <v>1.18</v>
+      </c>
+      <c r="I186" s="4">
+        <v>1089</v>
+      </c>
+      <c r="J186" s="4">
+        <v>2550</v>
+      </c>
+      <c r="K186">
+        <v>1.45</v>
+      </c>
+      <c r="L186" s="4">
+        <v>48676</v>
+      </c>
+      <c r="M186" s="4">
+        <v>37192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B187">
+        <v>15.16</v>
+      </c>
+      <c r="C187">
+        <v>13.63</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187">
+        <v>7.6</v>
+      </c>
+      <c r="F187">
+        <v>32.14</v>
+      </c>
+      <c r="G187">
+        <v>13.77</v>
+      </c>
+      <c r="H187">
+        <v>1.78</v>
+      </c>
+      <c r="I187" s="4">
+        <v>1194</v>
+      </c>
+      <c r="J187" s="4">
+        <v>2488</v>
+      </c>
+      <c r="K187">
+        <v>1.46</v>
+      </c>
+      <c r="L187" s="4">
+        <v>49257</v>
+      </c>
+      <c r="M187" s="4">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B188">
+        <v>15.16</v>
+      </c>
+      <c r="C188">
+        <v>13.7</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188">
+        <v>7.6</v>
+      </c>
+      <c r="F188">
+        <v>32.14</v>
+      </c>
+      <c r="G188">
+        <v>13.77</v>
+      </c>
+      <c r="H188">
+        <v>1.78</v>
+      </c>
+      <c r="I188" s="4">
+        <v>1194</v>
+      </c>
+      <c r="J188" s="4">
+        <v>2488</v>
+      </c>
+      <c r="K188">
+        <v>1.46</v>
+      </c>
+      <c r="L188" s="4">
+        <v>49257</v>
+      </c>
+      <c r="M188" s="4">
+        <v>37740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24184,8 +26113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED03B0AE-E083-40AC-8E89-B8479E16F6AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Finance/data/Options.xlsx
+++ b/Finance/data/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runru\Analysis_Data_Python\Finance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB7359-62AF-47A8-BFE8-CC497E7F54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CFCAD0-83C6-4037-97D3-610B1D4E74F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1010" windowWidth="15220" windowHeight="9790" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1070" windowWidth="19110" windowHeight="9730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="$SPX" sheetId="1" r:id="rId1"/>
@@ -1268,6 +1268,36 @@
                 <c:pt idx="188">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2371,6 +2401,36 @@
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2835,11 +2895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10601,6 +10661,416 @@
         <v>15613898</v>
       </c>
     </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B190">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C190">
+        <v>16.72</v>
+      </c>
+      <c r="D190">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>14.09</v>
+      </c>
+      <c r="F190">
+        <v>30.9</v>
+      </c>
+      <c r="G190">
+        <v>14.63</v>
+      </c>
+      <c r="H190">
+        <v>1.36</v>
+      </c>
+      <c r="I190" s="4">
+        <v>2272346</v>
+      </c>
+      <c r="J190" s="4">
+        <v>2504164</v>
+      </c>
+      <c r="K190">
+        <v>1.85</v>
+      </c>
+      <c r="L190" s="4">
+        <v>18818545</v>
+      </c>
+      <c r="M190" s="4">
+        <v>15792464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B191">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C191">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+      <c r="E191">
+        <v>8.77</v>
+      </c>
+      <c r="F191">
+        <v>30.9</v>
+      </c>
+      <c r="G191">
+        <v>14.63</v>
+      </c>
+      <c r="H191">
+        <v>1.18</v>
+      </c>
+      <c r="I191" s="4">
+        <v>2730559</v>
+      </c>
+      <c r="J191" s="4">
+        <v>2514454</v>
+      </c>
+      <c r="K191">
+        <v>1.82</v>
+      </c>
+      <c r="L191" s="4">
+        <v>18647882</v>
+      </c>
+      <c r="M191" s="4">
+        <v>15922255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>44965</v>
+      </c>
+      <c r="B192">
+        <v>17.72</v>
+      </c>
+      <c r="C192">
+        <v>16.71</v>
+      </c>
+      <c r="D192">
+        <v>13</v>
+      </c>
+      <c r="E192">
+        <v>18.98</v>
+      </c>
+      <c r="F192">
+        <v>30.9</v>
+      </c>
+      <c r="G192">
+        <v>14.63</v>
+      </c>
+      <c r="H192">
+        <v>1.29</v>
+      </c>
+      <c r="I192" s="4">
+        <v>2488656</v>
+      </c>
+      <c r="J192" s="4">
+        <v>2513333</v>
+      </c>
+      <c r="K192">
+        <v>1.83</v>
+      </c>
+      <c r="L192" s="4">
+        <v>17103240</v>
+      </c>
+      <c r="M192" s="4">
+        <v>15973603</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>44966</v>
+      </c>
+      <c r="B193">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="C193">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="D193">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>25.35</v>
+      </c>
+      <c r="F193">
+        <v>30.9</v>
+      </c>
+      <c r="G193">
+        <v>14.63</v>
+      </c>
+      <c r="H193">
+        <v>1.41</v>
+      </c>
+      <c r="I193" s="4">
+        <v>2543819</v>
+      </c>
+      <c r="J193" s="4">
+        <v>2503604</v>
+      </c>
+      <c r="K193">
+        <v>1.82</v>
+      </c>
+      <c r="L193" s="4">
+        <v>17413926</v>
+      </c>
+      <c r="M193" s="4">
+        <v>16025407</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B194">
+        <v>18.43</v>
+      </c>
+      <c r="C194">
+        <v>16.38</v>
+      </c>
+      <c r="D194">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>23.36</v>
+      </c>
+      <c r="F194">
+        <v>30.9</v>
+      </c>
+      <c r="G194">
+        <v>14.63</v>
+      </c>
+      <c r="H194">
+        <v>1.43</v>
+      </c>
+      <c r="I194" s="4">
+        <v>2478540</v>
+      </c>
+      <c r="J194" s="4">
+        <v>2511365</v>
+      </c>
+      <c r="K194">
+        <v>1.81</v>
+      </c>
+      <c r="L194" s="4">
+        <v>17563097</v>
+      </c>
+      <c r="M194" s="4">
+        <v>16086464</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A195" s="3">
+        <v>44970</v>
+      </c>
+      <c r="B195">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C195">
+        <v>16.02</v>
+      </c>
+      <c r="D195">
+        <v>19</v>
+      </c>
+      <c r="E195">
+        <v>24.83</v>
+      </c>
+      <c r="F195">
+        <v>30.9</v>
+      </c>
+      <c r="G195">
+        <v>14.63</v>
+      </c>
+      <c r="H195">
+        <v>1.45</v>
+      </c>
+      <c r="I195" s="4">
+        <v>2323066</v>
+      </c>
+      <c r="J195" s="4">
+        <v>2489414</v>
+      </c>
+      <c r="K195">
+        <v>1.85</v>
+      </c>
+      <c r="L195" s="4">
+        <v>17817402</v>
+      </c>
+      <c r="M195" s="4">
+        <v>16097018</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A196" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B196">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="C196">
+        <v>15.97</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="F196">
+        <v>30.9</v>
+      </c>
+      <c r="G196">
+        <v>14.63</v>
+      </c>
+      <c r="H196">
+        <v>1.44</v>
+      </c>
+      <c r="I196" s="4">
+        <v>2887526</v>
+      </c>
+      <c r="J196" s="4">
+        <v>2507510</v>
+      </c>
+      <c r="K196">
+        <v>1.86</v>
+      </c>
+      <c r="L196" s="4">
+        <v>17834950</v>
+      </c>
+      <c r="M196" s="4">
+        <v>16176015</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A197" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B197">
+        <v>16.45</v>
+      </c>
+      <c r="C197">
+        <v>15.85</v>
+      </c>
+      <c r="D197">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>11.2</v>
+      </c>
+      <c r="F197">
+        <v>30.9</v>
+      </c>
+      <c r="G197">
+        <v>14.63</v>
+      </c>
+      <c r="H197">
+        <v>1.51</v>
+      </c>
+      <c r="I197" s="4">
+        <v>2531739</v>
+      </c>
+      <c r="J197" s="4">
+        <v>2508563</v>
+      </c>
+      <c r="K197">
+        <v>1.85</v>
+      </c>
+      <c r="L197" s="4">
+        <v>18104348</v>
+      </c>
+      <c r="M197" s="4">
+        <v>16259856</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A198" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B198">
+        <v>17.75</v>
+      </c>
+      <c r="C198">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="D198">
+        <v>14</v>
+      </c>
+      <c r="E198">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="F198">
+        <v>30.9</v>
+      </c>
+      <c r="G198">
+        <v>14.63</v>
+      </c>
+      <c r="H198">
+        <v>1.5</v>
+      </c>
+      <c r="I198" s="4">
+        <v>2973201</v>
+      </c>
+      <c r="J198" s="4">
+        <v>2637833</v>
+      </c>
+      <c r="K198">
+        <v>1.88</v>
+      </c>
+      <c r="L198" s="4">
+        <v>18385411</v>
+      </c>
+      <c r="M198" s="4">
+        <v>17059221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
+        <v>44974</v>
+      </c>
+      <c r="B199">
+        <v>17.59</v>
+      </c>
+      <c r="C199">
+        <v>16.05</v>
+      </c>
+      <c r="D199">
+        <v>13</v>
+      </c>
+      <c r="E199">
+        <v>18.22</v>
+      </c>
+      <c r="F199">
+        <v>30.9</v>
+      </c>
+      <c r="G199">
+        <v>14.63</v>
+      </c>
+      <c r="H199">
+        <v>1.61</v>
+      </c>
+      <c r="I199" s="4">
+        <v>2647844</v>
+      </c>
+      <c r="J199" s="4">
+        <v>2645867</v>
+      </c>
+      <c r="K199">
+        <v>1.89</v>
+      </c>
+      <c r="L199" s="4">
+        <v>18707117</v>
+      </c>
+      <c r="M199" s="4">
+        <v>17129755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10608,11 +11078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16F718-A8F1-4CCF-9DBC-AE906527B6BD}">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18375,6 +18845,416 @@
         <v>178031</v>
       </c>
     </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B190">
+        <v>23.7</v>
+      </c>
+      <c r="C190">
+        <v>25.39</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>12.5</v>
+      </c>
+      <c r="F190">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G190">
+        <v>21.43</v>
+      </c>
+      <c r="H190">
+        <v>1.02</v>
+      </c>
+      <c r="I190" s="4">
+        <v>23742</v>
+      </c>
+      <c r="J190" s="4">
+        <v>35798</v>
+      </c>
+      <c r="K190">
+        <v>0.92</v>
+      </c>
+      <c r="L190" s="4">
+        <v>208140</v>
+      </c>
+      <c r="M190" s="4">
+        <v>180821</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B191">
+        <v>23.16</v>
+      </c>
+      <c r="C191">
+        <v>24.35</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="F191">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G191">
+        <v>21.43</v>
+      </c>
+      <c r="H191">
+        <v>0.67</v>
+      </c>
+      <c r="I191" s="4">
+        <v>24787</v>
+      </c>
+      <c r="J191" s="4">
+        <v>35274</v>
+      </c>
+      <c r="K191">
+        <v>0.9</v>
+      </c>
+      <c r="L191" s="4">
+        <v>204683</v>
+      </c>
+      <c r="M191" s="4">
+        <v>181957</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>44965</v>
+      </c>
+      <c r="B192">
+        <v>24.79</v>
+      </c>
+      <c r="C192">
+        <v>25.27</v>
+      </c>
+      <c r="D192">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>18.53</v>
+      </c>
+      <c r="F192">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G192">
+        <v>21.43</v>
+      </c>
+      <c r="H192">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I192" s="4">
+        <v>21228</v>
+      </c>
+      <c r="J192" s="4">
+        <v>34636</v>
+      </c>
+      <c r="K192">
+        <v>0.95</v>
+      </c>
+      <c r="L192" s="4">
+        <v>175070</v>
+      </c>
+      <c r="M192" s="4">
+        <v>181644</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>44966</v>
+      </c>
+      <c r="B193">
+        <v>25.93</v>
+      </c>
+      <c r="C193">
+        <v>24.95</v>
+      </c>
+      <c r="D193">
+        <v>24</v>
+      </c>
+      <c r="E193">
+        <v>24.77</v>
+      </c>
+      <c r="F193">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G193">
+        <v>21.43</v>
+      </c>
+      <c r="H193">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I193" s="4">
+        <v>24847</v>
+      </c>
+      <c r="J193" s="4">
+        <v>33168</v>
+      </c>
+      <c r="K193">
+        <v>0.95</v>
+      </c>
+      <c r="L193" s="4">
+        <v>177604</v>
+      </c>
+      <c r="M193" s="4">
+        <v>181380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B194">
+        <v>25.28</v>
+      </c>
+      <c r="C194">
+        <v>24.59</v>
+      </c>
+      <c r="D194">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>21.23</v>
+      </c>
+      <c r="F194">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G194">
+        <v>21.43</v>
+      </c>
+      <c r="H194">
+        <v>1.01</v>
+      </c>
+      <c r="I194" s="4">
+        <v>28391</v>
+      </c>
+      <c r="J194" s="4">
+        <v>33081</v>
+      </c>
+      <c r="K194">
+        <v>0.94</v>
+      </c>
+      <c r="L194" s="4">
+        <v>178491</v>
+      </c>
+      <c r="M194" s="4">
+        <v>180783</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A195" s="3">
+        <v>44970</v>
+      </c>
+      <c r="B195">
+        <v>25.78</v>
+      </c>
+      <c r="C195">
+        <v>24.09</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>23.99</v>
+      </c>
+      <c r="F195">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G195">
+        <v>21.43</v>
+      </c>
+      <c r="H195">
+        <v>1.05</v>
+      </c>
+      <c r="I195" s="4">
+        <v>24493</v>
+      </c>
+      <c r="J195" s="4">
+        <v>30846</v>
+      </c>
+      <c r="K195">
+        <v>0.97</v>
+      </c>
+      <c r="L195" s="4">
+        <v>179574</v>
+      </c>
+      <c r="M195" s="4">
+        <v>178258</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A196" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B196">
+        <v>23.38</v>
+      </c>
+      <c r="C196">
+        <v>24.04</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>10.74</v>
+      </c>
+      <c r="F196">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G196">
+        <v>21.43</v>
+      </c>
+      <c r="H196">
+        <v>1.31</v>
+      </c>
+      <c r="I196" s="4">
+        <v>25766</v>
+      </c>
+      <c r="J196" s="4">
+        <v>30604</v>
+      </c>
+      <c r="K196">
+        <v>0.97</v>
+      </c>
+      <c r="L196" s="4">
+        <v>178580</v>
+      </c>
+      <c r="M196" s="4">
+        <v>178273</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A197" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B197">
+        <v>22.29</v>
+      </c>
+      <c r="C197">
+        <v>23.78</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>4.74</v>
+      </c>
+      <c r="F197">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G197">
+        <v>21.43</v>
+      </c>
+      <c r="H197">
+        <v>0.84</v>
+      </c>
+      <c r="I197" s="4">
+        <v>21157</v>
+      </c>
+      <c r="J197" s="4">
+        <v>30174</v>
+      </c>
+      <c r="K197">
+        <v>0.98</v>
+      </c>
+      <c r="L197" s="4">
+        <v>182307</v>
+      </c>
+      <c r="M197" s="4">
+        <v>178456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A198" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B198">
+        <v>23.77</v>
+      </c>
+      <c r="C198">
+        <v>24.83</v>
+      </c>
+      <c r="D198">
+        <v>11</v>
+      </c>
+      <c r="E198">
+        <v>12.91</v>
+      </c>
+      <c r="F198">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G198">
+        <v>21.43</v>
+      </c>
+      <c r="H198">
+        <v>0.89</v>
+      </c>
+      <c r="I198" s="4">
+        <v>32214</v>
+      </c>
+      <c r="J198" s="4">
+        <v>30263</v>
+      </c>
+      <c r="K198">
+        <v>0.97</v>
+      </c>
+      <c r="L198" s="4">
+        <v>181854</v>
+      </c>
+      <c r="M198" s="4">
+        <v>178604</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
+        <v>44974</v>
+      </c>
+      <c r="B199">
+        <v>23.66</v>
+      </c>
+      <c r="C199">
+        <v>24.32</v>
+      </c>
+      <c r="D199">
+        <v>11</v>
+      </c>
+      <c r="E199">
+        <v>12.27</v>
+      </c>
+      <c r="F199">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G199">
+        <v>21.43</v>
+      </c>
+      <c r="H199">
+        <v>0.6</v>
+      </c>
+      <c r="I199" s="4">
+        <v>31927</v>
+      </c>
+      <c r="J199" s="4">
+        <v>30010</v>
+      </c>
+      <c r="K199">
+        <v>1.03</v>
+      </c>
+      <c r="L199" s="4">
+        <v>181771</v>
+      </c>
+      <c r="M199" s="4">
+        <v>177960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18383,11 +19263,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55BD6C-1A6D-45F1-BD14-453581CC939E}">
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26104,6 +26984,416 @@
         <v>37740</v>
       </c>
     </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B189">
+        <v>14.93</v>
+      </c>
+      <c r="C189">
+        <v>13</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>6.33</v>
+      </c>
+      <c r="F189">
+        <v>32.14</v>
+      </c>
+      <c r="G189">
+        <v>13.77</v>
+      </c>
+      <c r="H189">
+        <v>0.45</v>
+      </c>
+      <c r="I189">
+        <v>508</v>
+      </c>
+      <c r="J189" s="4">
+        <v>2687</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189" s="4">
+        <v>50286</v>
+      </c>
+      <c r="M189" s="4">
+        <v>40462</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B190">
+        <v>14.48</v>
+      </c>
+      <c r="C190">
+        <v>12.74</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>3.9</v>
+      </c>
+      <c r="F190">
+        <v>32.14</v>
+      </c>
+      <c r="G190">
+        <v>13.77</v>
+      </c>
+      <c r="H190">
+        <v>2.59</v>
+      </c>
+      <c r="I190" s="4">
+        <v>1022</v>
+      </c>
+      <c r="J190" s="4">
+        <v>2608</v>
+      </c>
+      <c r="K190">
+        <v>1.44</v>
+      </c>
+      <c r="L190" s="4">
+        <v>49393</v>
+      </c>
+      <c r="M190" s="4">
+        <v>40887</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>44965</v>
+      </c>
+      <c r="B191">
+        <v>15.28</v>
+      </c>
+      <c r="C191">
+        <v>12.84</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
+      </c>
+      <c r="E191">
+        <v>8.26</v>
+      </c>
+      <c r="F191">
+        <v>32.14</v>
+      </c>
+      <c r="G191">
+        <v>13.77</v>
+      </c>
+      <c r="H191">
+        <v>0.36</v>
+      </c>
+      <c r="I191">
+        <v>584</v>
+      </c>
+      <c r="J191" s="4">
+        <v>2516</v>
+      </c>
+      <c r="K191">
+        <v>1.45</v>
+      </c>
+      <c r="L191" s="4">
+        <v>49879</v>
+      </c>
+      <c r="M191" s="4">
+        <v>41296</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>44966</v>
+      </c>
+      <c r="B192">
+        <v>16.55</v>
+      </c>
+      <c r="C192">
+        <v>13.05</v>
+      </c>
+      <c r="D192">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>15.13</v>
+      </c>
+      <c r="F192">
+        <v>32.14</v>
+      </c>
+      <c r="G192">
+        <v>13.77</v>
+      </c>
+      <c r="H192">
+        <v>0.84</v>
+      </c>
+      <c r="I192">
+        <v>594</v>
+      </c>
+      <c r="J192" s="4">
+        <v>2468</v>
+      </c>
+      <c r="K192">
+        <v>1.45</v>
+      </c>
+      <c r="L192" s="4">
+        <v>49921</v>
+      </c>
+      <c r="M192" s="4">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B193">
+        <v>16.34</v>
+      </c>
+      <c r="C193">
+        <v>12.65</v>
+      </c>
+      <c r="D193">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>13.98</v>
+      </c>
+      <c r="F193">
+        <v>32.14</v>
+      </c>
+      <c r="G193">
+        <v>13.77</v>
+      </c>
+      <c r="H193">
+        <v>0.42</v>
+      </c>
+      <c r="I193" s="4">
+        <v>3463</v>
+      </c>
+      <c r="J193" s="4">
+        <v>2578</v>
+      </c>
+      <c r="K193">
+        <v>1.45</v>
+      </c>
+      <c r="L193" s="4">
+        <v>50099</v>
+      </c>
+      <c r="M193" s="4">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>44970</v>
+      </c>
+      <c r="B194">
+        <v>15.8</v>
+      </c>
+      <c r="C194">
+        <v>12.69</v>
+      </c>
+      <c r="D194">
+        <v>12</v>
+      </c>
+      <c r="E194">
+        <v>11.04</v>
+      </c>
+      <c r="F194">
+        <v>32.14</v>
+      </c>
+      <c r="G194">
+        <v>13.77</v>
+      </c>
+      <c r="H194">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I194">
+        <v>509</v>
+      </c>
+      <c r="J194" s="4">
+        <v>2191</v>
+      </c>
+      <c r="K194">
+        <v>1.34</v>
+      </c>
+      <c r="L194" s="4">
+        <v>53297</v>
+      </c>
+      <c r="M194" s="4">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A195" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B195">
+        <v>14.78</v>
+      </c>
+      <c r="C195">
+        <v>12.76</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+      <c r="E195">
+        <v>5.54</v>
+      </c>
+      <c r="F195">
+        <v>32.14</v>
+      </c>
+      <c r="G195">
+        <v>13.77</v>
+      </c>
+      <c r="H195">
+        <v>0.69</v>
+      </c>
+      <c r="I195">
+        <v>438</v>
+      </c>
+      <c r="J195" s="4">
+        <v>2108</v>
+      </c>
+      <c r="K195">
+        <v>1.36</v>
+      </c>
+      <c r="L195" s="4">
+        <v>53082</v>
+      </c>
+      <c r="M195" s="4">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A196" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B196">
+        <v>14.19</v>
+      </c>
+      <c r="C196">
+        <v>12.75</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F196">
+        <v>32.14</v>
+      </c>
+      <c r="G196">
+        <v>13.77</v>
+      </c>
+      <c r="H196">
+        <v>6.26</v>
+      </c>
+      <c r="I196">
+        <v>472</v>
+      </c>
+      <c r="J196" s="4">
+        <v>2033</v>
+      </c>
+      <c r="K196">
+        <v>1.35</v>
+      </c>
+      <c r="L196" s="4">
+        <v>53256</v>
+      </c>
+      <c r="M196" s="4">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A197" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B197">
+        <v>15.42</v>
+      </c>
+      <c r="C197">
+        <v>13.3</v>
+      </c>
+      <c r="D197">
+        <v>10</v>
+      </c>
+      <c r="E197">
+        <v>8.98</v>
+      </c>
+      <c r="F197">
+        <v>32.14</v>
+      </c>
+      <c r="G197">
+        <v>13.77</v>
+      </c>
+      <c r="H197">
+        <v>0.96</v>
+      </c>
+      <c r="I197" s="4">
+        <v>3636</v>
+      </c>
+      <c r="J197" s="4">
+        <v>2103</v>
+      </c>
+      <c r="K197">
+        <v>1.37</v>
+      </c>
+      <c r="L197" s="4">
+        <v>53591</v>
+      </c>
+      <c r="M197" s="4">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A198" s="3">
+        <v>44974</v>
+      </c>
+      <c r="B198">
+        <v>15.17</v>
+      </c>
+      <c r="C198">
+        <v>12.95</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198">
+        <v>7.65</v>
+      </c>
+      <c r="F198">
+        <v>32.14</v>
+      </c>
+      <c r="G198">
+        <v>13.77</v>
+      </c>
+      <c r="H198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I198" s="4">
+        <v>2904</v>
+      </c>
+      <c r="J198" s="4">
+        <v>1955</v>
+      </c>
+      <c r="K198">
+        <v>1.36</v>
+      </c>
+      <c r="L198" s="4">
+        <v>53795</v>
+      </c>
+      <c r="M198" s="4">
+        <v>46659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26113,7 +27403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED03B0AE-E083-40AC-8E89-B8479E16F6AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>

--- a/Finance/data/Options.xlsx
+++ b/Finance/data/Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runru\Analysis_Data_Python\Finance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CFCAD0-83C6-4037-97D3-610B1D4E74F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5BDE6B-9319-4D86-8E92-60BC341AEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1070" windowWidth="19110" windowHeight="9730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="8570" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="$SPX" sheetId="1" r:id="rId1"/>
@@ -1298,6 +1298,18 @@
                 <c:pt idx="198">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2431,6 +2443,18 @@
                       </c:pt>
                       <c:pt idx="197">
                         <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>23</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2895,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
@@ -11071,6 +11095,170 @@
         <v>17129755</v>
       </c>
     </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A200" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B200">
+        <v>21.11</v>
+      </c>
+      <c r="C200">
+        <v>16.16</v>
+      </c>
+      <c r="D200">
+        <v>42</v>
+      </c>
+      <c r="E200">
+        <v>39.79</v>
+      </c>
+      <c r="F200">
+        <v>30.9</v>
+      </c>
+      <c r="G200">
+        <v>14.63</v>
+      </c>
+      <c r="H200">
+        <v>1.34</v>
+      </c>
+      <c r="I200" s="4">
+        <v>2536422</v>
+      </c>
+      <c r="J200" s="4">
+        <v>2497159</v>
+      </c>
+      <c r="K200">
+        <v>1.97</v>
+      </c>
+      <c r="L200" s="4">
+        <v>18729775</v>
+      </c>
+      <c r="M200" s="4">
+        <v>16543907</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A201" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B201">
+        <v>20.57</v>
+      </c>
+      <c r="C201">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="D201">
+        <v>35</v>
+      </c>
+      <c r="E201">
+        <v>36.51</v>
+      </c>
+      <c r="F201">
+        <v>30.9</v>
+      </c>
+      <c r="G201">
+        <v>14.63</v>
+      </c>
+      <c r="H201">
+        <v>1.52</v>
+      </c>
+      <c r="I201" s="4">
+        <v>2167824</v>
+      </c>
+      <c r="J201" s="4">
+        <v>2482840</v>
+      </c>
+      <c r="K201">
+        <v>1.85</v>
+      </c>
+      <c r="L201" s="4">
+        <v>17124259</v>
+      </c>
+      <c r="M201" s="4">
+        <v>16569140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A202" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B202">
+        <v>19.27</v>
+      </c>
+      <c r="C202">
+        <v>16.13</v>
+      </c>
+      <c r="D202">
+        <v>26</v>
+      </c>
+      <c r="E202">
+        <v>28.54</v>
+      </c>
+      <c r="F202">
+        <v>30.9</v>
+      </c>
+      <c r="G202">
+        <v>14.63</v>
+      </c>
+      <c r="H202">
+        <v>1.43</v>
+      </c>
+      <c r="I202" s="4">
+        <v>2672237</v>
+      </c>
+      <c r="J202" s="4">
+        <v>2471479</v>
+      </c>
+      <c r="K202">
+        <v>1.85</v>
+      </c>
+      <c r="L202" s="4">
+        <v>17181560</v>
+      </c>
+      <c r="M202" s="4">
+        <v>16634291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A203" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B203">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C203">
+        <v>16.04</v>
+      </c>
+      <c r="D203">
+        <v>31</v>
+      </c>
+      <c r="E203">
+        <v>32.11</v>
+      </c>
+      <c r="F203">
+        <v>30.9</v>
+      </c>
+      <c r="G203">
+        <v>14.63</v>
+      </c>
+      <c r="H203">
+        <v>1.45</v>
+      </c>
+      <c r="I203" s="4">
+        <v>2788084</v>
+      </c>
+      <c r="J203" s="4">
+        <v>2503568</v>
+      </c>
+      <c r="K203">
+        <v>1.86</v>
+      </c>
+      <c r="L203" s="4">
+        <v>17423740</v>
+      </c>
+      <c r="M203" s="4">
+        <v>16717203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11078,7 +11266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16F718-A8F1-4CCF-9DBC-AE906527B6BD}">
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
@@ -19255,6 +19443,170 @@
         <v>177960</v>
       </c>
     </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A200" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B200">
+        <v>27.47</v>
+      </c>
+      <c r="C200">
+        <v>24.77</v>
+      </c>
+      <c r="D200">
+        <v>40</v>
+      </c>
+      <c r="E200">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="F200">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G200">
+        <v>21.43</v>
+      </c>
+      <c r="H200">
+        <v>0.94</v>
+      </c>
+      <c r="I200" s="4">
+        <v>27267</v>
+      </c>
+      <c r="J200" s="4">
+        <v>27740</v>
+      </c>
+      <c r="K200">
+        <v>1.06</v>
+      </c>
+      <c r="L200" s="4">
+        <v>177361</v>
+      </c>
+      <c r="M200" s="4">
+        <v>174342</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A201" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B201">
+        <v>26.98</v>
+      </c>
+      <c r="C201">
+        <v>24.77</v>
+      </c>
+      <c r="D201">
+        <v>37</v>
+      </c>
+      <c r="E201">
+        <v>30.55</v>
+      </c>
+      <c r="F201">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G201">
+        <v>21.43</v>
+      </c>
+      <c r="H201">
+        <v>0.81</v>
+      </c>
+      <c r="I201" s="4">
+        <v>23126</v>
+      </c>
+      <c r="J201" s="4">
+        <v>27530</v>
+      </c>
+      <c r="K201">
+        <v>0.98</v>
+      </c>
+      <c r="L201" s="4">
+        <v>171257</v>
+      </c>
+      <c r="M201" s="4">
+        <v>174202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A202" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B202">
+        <v>25.45</v>
+      </c>
+      <c r="C202">
+        <v>24.78</v>
+      </c>
+      <c r="D202">
+        <v>23</v>
+      </c>
+      <c r="E202">
+        <v>22.15</v>
+      </c>
+      <c r="F202">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G202">
+        <v>21.43</v>
+      </c>
+      <c r="H202">
+        <v>1.2</v>
+      </c>
+      <c r="I202" s="4">
+        <v>32584</v>
+      </c>
+      <c r="J202" s="4">
+        <v>27444</v>
+      </c>
+      <c r="K202">
+        <v>0.98</v>
+      </c>
+      <c r="L202" s="4">
+        <v>170726</v>
+      </c>
+      <c r="M202" s="4">
+        <v>174224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A203" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B203">
+        <v>26.11</v>
+      </c>
+      <c r="C203">
+        <v>25.06</v>
+      </c>
+      <c r="D203">
+        <v>29</v>
+      </c>
+      <c r="E203">
+        <v>25.77</v>
+      </c>
+      <c r="F203">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G203">
+        <v>21.43</v>
+      </c>
+      <c r="H203">
+        <v>0.8</v>
+      </c>
+      <c r="I203" s="4">
+        <v>31504</v>
+      </c>
+      <c r="J203" s="4">
+        <v>27951</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203" s="4">
+        <v>174269</v>
+      </c>
+      <c r="M203" s="4">
+        <v>175202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19263,9 +19615,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55BD6C-1A6D-45F1-BD14-453581CC939E}">
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P200" sqref="P200"/>
     </sheetView>
@@ -27394,6 +27746,170 @@
         <v>46659</v>
       </c>
     </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B199">
+        <v>17.34</v>
+      </c>
+      <c r="C199">
+        <v>12.97</v>
+      </c>
+      <c r="D199">
+        <v>28</v>
+      </c>
+      <c r="E199">
+        <v>19.46</v>
+      </c>
+      <c r="F199">
+        <v>32.14</v>
+      </c>
+      <c r="G199">
+        <v>13.77</v>
+      </c>
+      <c r="H199">
+        <v>1.71</v>
+      </c>
+      <c r="I199" s="4">
+        <v>2127</v>
+      </c>
+      <c r="J199" s="4">
+        <v>1847</v>
+      </c>
+      <c r="K199">
+        <v>1.2</v>
+      </c>
+      <c r="L199" s="4">
+        <v>49277</v>
+      </c>
+      <c r="M199" s="4">
+        <v>46992</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A200" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B200">
+        <v>17.13</v>
+      </c>
+      <c r="C200">
+        <v>12.96</v>
+      </c>
+      <c r="D200">
+        <v>25</v>
+      </c>
+      <c r="E200">
+        <v>18.3</v>
+      </c>
+      <c r="F200">
+        <v>32.14</v>
+      </c>
+      <c r="G200">
+        <v>13.77</v>
+      </c>
+      <c r="H200">
+        <v>0.71</v>
+      </c>
+      <c r="I200">
+        <v>360</v>
+      </c>
+      <c r="J200" s="4">
+        <v>1780</v>
+      </c>
+      <c r="K200">
+        <v>1.2</v>
+      </c>
+      <c r="L200" s="4">
+        <v>48542</v>
+      </c>
+      <c r="M200" s="4">
+        <v>47062</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A201" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B201">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C201">
+        <v>12.89</v>
+      </c>
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>12.72</v>
+      </c>
+      <c r="F201">
+        <v>32.14</v>
+      </c>
+      <c r="G201">
+        <v>13.77</v>
+      </c>
+      <c r="H201">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I201">
+        <v>621</v>
+      </c>
+      <c r="J201" s="4">
+        <v>1697</v>
+      </c>
+      <c r="K201">
+        <v>1.19</v>
+      </c>
+      <c r="L201" s="4">
+        <v>48810</v>
+      </c>
+      <c r="M201" s="4">
+        <v>47440</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A202" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B202">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="C202">
+        <v>12.91</v>
+      </c>
+      <c r="D202">
+        <v>23</v>
+      </c>
+      <c r="E202">
+        <v>14.83</v>
+      </c>
+      <c r="F202">
+        <v>32.14</v>
+      </c>
+      <c r="G202">
+        <v>13.77</v>
+      </c>
+      <c r="H202">
+        <v>0.95</v>
+      </c>
+      <c r="I202">
+        <v>273</v>
+      </c>
+      <c r="J202" s="4">
+        <v>1684</v>
+      </c>
+      <c r="K202">
+        <v>1.18</v>
+      </c>
+      <c r="L202" s="4">
+        <v>49025</v>
+      </c>
+      <c r="M202" s="4">
+        <v>48047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27403,7 +27919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED03B0AE-E083-40AC-8E89-B8479E16F6AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="61" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
